--- a/biology/Médecine/Marie-Isabelle_Diaz/Marie-Isabelle_Diaz.xlsx
+++ b/biology/Médecine/Marie-Isabelle_Diaz/Marie-Isabelle_Diaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Isabelle Diaz, née Maria Isabel Rodriguez, Pied-Noir née à Sidi Bel Abbès le 22 février 1898[2],[3],[4], morte le 29 octobre 2011[5] à l'âge de 113 ans et 249 jours, a été pendant près d'un an la doyenne des Français et fut la 8e personne la plus âgée du monde en vie peu avant son décès — en l'état des connaissances. Elle n'en a pas eu le titre « officiel », traditionnellement décerné par des scientifiques (Gerontology Research Group et Inserm).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Isabelle Diaz, née Maria Isabel Rodriguez, Pied-Noir née à Sidi Bel Abbès le 22 février 1898 morte le 29 octobre 2011 à l'âge de 113 ans et 249 jours, a été pendant près d'un an la doyenne des Français et fut la 8e personne la plus âgée du monde en vie peu avant son décès — en l'état des connaissances. Elle n'en a pas eu le titre « officiel », traditionnellement décerné par des scientifiques (Gerontology Research Group et Inserm).
 </t>
         </is>
       </c>
@@ -511,13 +523,50 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pied-noire, elle naît à Sidi Bel Abbès, dans l'ouest de l'Algérie, dans le département d'Oran, sous la présidence de Félix Faure, en pleine affaire Dreyfus. Elle se marie et a trois enfants. Son mari meurt à 60 ans. Elle quitte le pays en 1962, après l'accession à l'indépendance, au milieu de l'exode des Pieds-Noirs. Elle s'établit alors chez un de ses fils, en Espagne[3]. Puis elle vit quelques années à Rouen. En 1983, elle part rejoindre sa fille[6], auprès de qui elle va vivre, à La Possession[2], sur l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien.
-« Vraie » doyenne des Français
-Lorsque meurt Eugénie Blanchard le 4 novembre 2010, l'Inserm désigne Mathilde Aussant comme doyenne des Français. Celle-ci est née cinq jours après Marie-Isabelle[7]. Puis, à la mort de Mathilde Aussant le 22 juillet 2011, l'Inserm désigne pour lui succéder Marcelle Narbonne, née un mois après Marie-Isabelle[8]. Deux jours après cette désignation, les médias révèlent l'âge de Marie-Isabelle, la qualifiant aussitôt de « vraie[9],[10] » doyenne des Français, par opposition à la doyenne « officielle[6] ».
-La famille de Marie-Isabelle, privilégiant la tranquillité de la centenaire, accueille avec circonspection ce brutal coup de projecteur[3]. Elle livre cependant quelques indications sur la bonne forme de la doyenne : « 52 pulsations par minute, des os solides[2] ». À 113 ans, elle monte à l'étage tous les jours[10], marche sans canne, ne suit aucun traitement médical. Et sa tension artérielle « est celle d'une jeune fille » : 12/7[6]. De caractère agréable, elle n'est jamais malade, lit, regarde la télévision, s'informe. Rien ne l'étonne. Mais elle vit dans son monde, restant discrète sur son âge, ne tenant pas à passer à la télévision[9], n'aimant ni parler de ses souvenirs, ni se faire photographier[6].
-La famille ne se chagrine pas de ce que le titre de doyenne soit attribué à quelqu'un d'autre : « Le plus important n'est pas de voir sa tête dans le journal, mais de la voir chaque jour avec nous[10]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pied-noire, elle naît à Sidi Bel Abbès, dans l'ouest de l'Algérie, dans le département d'Oran, sous la présidence de Félix Faure, en pleine affaire Dreyfus. Elle se marie et a trois enfants. Son mari meurt à 60 ans. Elle quitte le pays en 1962, après l'accession à l'indépendance, au milieu de l'exode des Pieds-Noirs. Elle s'établit alors chez un de ses fils, en Espagne. Puis elle vit quelques années à Rouen. En 1983, elle part rejoindre sa fille, auprès de qui elle va vivre, à La Possession, sur l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marie-Isabelle_Diaz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Isabelle_Diaz</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>« Vraie » doyenne des Français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque meurt Eugénie Blanchard le 4 novembre 2010, l'Inserm désigne Mathilde Aussant comme doyenne des Français. Celle-ci est née cinq jours après Marie-Isabelle. Puis, à la mort de Mathilde Aussant le 22 juillet 2011, l'Inserm désigne pour lui succéder Marcelle Narbonne, née un mois après Marie-Isabelle. Deux jours après cette désignation, les médias révèlent l'âge de Marie-Isabelle, la qualifiant aussitôt de « vraie, » doyenne des Français, par opposition à la doyenne « officielle ».
+La famille de Marie-Isabelle, privilégiant la tranquillité de la centenaire, accueille avec circonspection ce brutal coup de projecteur. Elle livre cependant quelques indications sur la bonne forme de la doyenne : « 52 pulsations par minute, des os solides ». À 113 ans, elle monte à l'étage tous les jours, marche sans canne, ne suit aucun traitement médical. Et sa tension artérielle « est celle d'une jeune fille » : 12/7. De caractère agréable, elle n'est jamais malade, lit, regarde la télévision, s'informe. Rien ne l'étonne. Mais elle vit dans son monde, restant discrète sur son âge, ne tenant pas à passer à la télévision, n'aimant ni parler de ses souvenirs, ni se faire photographier.
+La famille ne se chagrine pas de ce que le titre de doyenne soit attribué à quelqu'un d'autre : « Le plus important n'est pas de voir sa tête dans le journal, mais de la voir chaque jour avec nous. »
 Marie-Isabelle Diaz s'éteint le 29 octobre 2011.
 </t>
         </is>
